--- a/最短路径升序.xlsx
+++ b/最短路径升序.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024MCM_Pre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40BC152-0B7A-4C96-84C4-AC2829CA4B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3CB330-B698-4A33-8956-7A00B21B9E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2892" windowWidth="17304" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +131,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -154,11 +161,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -441,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -555,7 +563,7 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>106.2</v>
       </c>
     </row>
@@ -563,7 +571,7 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>109.41</v>
       </c>
     </row>
@@ -571,7 +579,7 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>112.14</v>
       </c>
     </row>
@@ -579,7 +587,7 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>126.35</v>
       </c>
     </row>
@@ -587,7 +595,7 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>128</v>
       </c>
     </row>
@@ -595,7 +603,7 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>143.87</v>
       </c>
     </row>
@@ -603,7 +611,7 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>147.18</v>
       </c>
     </row>

--- a/最短路径升序.xlsx
+++ b/最短路径升序.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024MCM_Pre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3CB330-B698-4A33-8956-7A00B21B9E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689764BA-00EC-465A-87AC-F6835254E697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2892" windowWidth="17304" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"># 73-63   </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t xml:space="preserve"># 150-63  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -111,6 +123,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="180" formatCode="0.0000"/>
+    <numFmt numFmtId="181" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,9 +151,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -161,12 +178,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -447,173 +468,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="2">
         <v>27.71</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="3">
+        <v>21733</v>
+      </c>
+      <c r="E2">
+        <v>73</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.63563454382137796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="2">
         <v>30.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="3">
+        <v>28295</v>
+      </c>
+      <c r="E3">
+        <v>75</v>
+      </c>
+      <c r="F3" s="6">
+        <v>7.6407967032966996E-3</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.95412549724111295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="2">
         <v>31.59</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="3">
+        <v>38223</v>
+      </c>
+      <c r="E4">
+        <v>106</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5.2541208791208799E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.77107660721159998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="2">
         <v>36.82</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="3">
+        <v>32517</v>
+      </c>
+      <c r="E5">
+        <v>130</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.21548763736263701</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.137687668420377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="2">
         <v>55.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="3">
+        <v>12773</v>
+      </c>
+      <c r="E6">
+        <v>94</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.21626030219780201</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.64968561529577795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="2">
         <v>55.89</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="3">
+        <v>28733</v>
+      </c>
+      <c r="E7">
+        <v>125</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.234890109890109</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2.5150776337738899E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="2">
         <v>58.06</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="3">
+        <v>9265</v>
+      </c>
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.304687499999999</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="2">
         <v>66.19</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="3">
+        <v>39653</v>
+      </c>
+      <c r="E9">
+        <v>145</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.30992445054945</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.24451430771204899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="2">
         <v>66.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="3">
+        <v>16103</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.36881868131868101</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.73046323623764897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="2">
         <v>73.66</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="3">
+        <v>31251</v>
+      </c>
+      <c r="E11">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.40195741758241699</v>
+      </c>
+      <c r="G11" s="5">
+        <v>9.5277813422302002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="2">
         <v>77.52</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="3">
+        <v>11451</v>
+      </c>
+      <c r="E12">
+        <v>34</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.50403502747252704</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.25324008725779501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="2">
         <v>89.41</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="3">
+        <v>16375</v>
+      </c>
+      <c r="E13">
+        <v>22</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.531249999999999</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2.49262158347234E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="2">
         <v>92.58</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="3">
+        <v>9258</v>
+      </c>
+      <c r="E14">
+        <v>141</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.64817994505494503</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.496150391376876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
         <v>106.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C15" s="3">
+        <v>23947</v>
+      </c>
+      <c r="E15">
+        <v>31</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.67573832417582402</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.20091749005517701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>109.41</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="C16" s="3">
+        <v>14744</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.69917582417582402</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3.2336712434235797E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>112.14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="3">
+        <v>9489</v>
+      </c>
+      <c r="E17">
+        <v>42</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.82117101648351598</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.22741562941100901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>126.35</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="C18" s="3">
+        <v>15570</v>
+      </c>
+      <c r="E18">
+        <v>85</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.83533653846153799</v>
+      </c>
+      <c r="G18" s="5">
+        <v>9.6945977158988797E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2">
         <v>128</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C19" s="3">
+        <v>11503</v>
+      </c>
+      <c r="E19">
+        <v>36</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.97158310439560402</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.97132041575773098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>143.87</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C20" s="4">
+        <v>38759</v>
+      </c>
+      <c r="E20">
+        <v>76</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="2">
         <v>147.18</v>
       </c>
+      <c r="C21" s="3">
+        <v>8481</v>
+      </c>
+      <c r="F21" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
